--- a/report-excel/ooxml-radar-chart.xlsx
+++ b/report-excel/ooxml-radar-chart.xlsx
@@ -188,7 +188,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt sourceLinked="true" formatCode=""/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -286,47 +285,47 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="n" s="0">
         <v>5.0</v>
       </c>
     </row>
